--- a/src/test/java/Info.xlsx
+++ b/src/test/java/Info.xlsx
@@ -114,7 +114,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
-      <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="D5" activePane="bottomRight"/>
+      <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
